--- a/PopupApp/bin/Debug/Общий_отчёт.xlsx
+++ b/PopupApp/bin/Debug/Общий_отчёт.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Наименование</t>
+  </si>
+  <si>
+    <t>Номер договора</t>
   </si>
   <si>
     <t>Местоположение</t>
@@ -32,22 +35,28 @@
     <t>Контрагент</t>
   </si>
   <si>
+    <t>Услуга</t>
+  </si>
+  <si>
     <t>Стоимость</t>
   </si>
   <si>
     <t>Статус</t>
   </si>
   <si>
-    <t>Test3</t>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>3123123</t>
   </si>
   <si>
     <t>Москва</t>
   </si>
   <si>
-    <t>02.01.2023</t>
+    <t>23.05.2023</t>
   </si>
   <si>
-    <t>30.05.2023</t>
+    <t>31.05.2023</t>
   </si>
   <si>
     <t>Входящий</t>
@@ -56,34 +65,13 @@
     <t>Иванов И.И.</t>
   </si>
   <si>
+    <t>Проектирование</t>
+  </si>
+  <si>
     <t>25000</t>
   </si>
   <si>
     <t>Открыт</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Мытищи</t>
-  </si>
-  <si>
-    <t>02.07.2023</t>
-  </si>
-  <si>
-    <t>30.07.2023</t>
-  </si>
-  <si>
-    <t>Исходящий</t>
-  </si>
-  <si>
-    <t>Сергеевич С.С.</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>Закрыт</t>
   </si>
 </sst>
 </file>
@@ -129,7 +117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -160,57 +148,43 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
